--- a/data/study type dictionary.xlsx
+++ b/data/study type dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/judson_richard_epa_gov/Documents/Profile/Documents/Papers/340 ToxValDB/toxvaldbmaunscript/data/bmd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/judson_richard_epa_gov/Documents/Profile/Documents/Papers/387 BMDh/toxvaldbBMDh/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC1048AD21DF74EC5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEE64540-4C87-460D-BA91-8CFE778DA787}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC1048AD21DF74EC5ADE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FECB0E6E-87EA-4E2C-BE42-6817A4E4F2D8}"/>
   <bookViews>
-    <workbookView xWindow="-26655" yWindow="1230" windowWidth="24120" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22860" yWindow="3900" windowWidth="22590" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="178">
   <si>
     <t>Noncancer - Mouse oral subchronic study</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>developmental</t>
+  </si>
+  <si>
+    <t>intermediate</t>
   </si>
 </sst>
 </file>
@@ -876,11 +879,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2249,6 +2252,14 @@
         <v>173</v>
       </c>
     </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
